--- a/DailyLife/Weartime.xlsx
+++ b/DailyLife/Weartime.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ppID</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Analysed</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Not Analysed</t>
   </si>
   <si>
     <t>BC_002</t>
@@ -125,7 +134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
@@ -309,6 +318,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="D7" s="0">
+        <v>14.699999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>14.516666666666667</v>
+      </c>
+      <c r="F7" s="0">
+        <v>15.733333333333333</v>
+      </c>
+      <c r="G7" s="0">
+        <v>16.300000000000001</v>
+      </c>
+      <c r="H7" s="0">
+        <v>4.2999999999999998</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/DailyLife/Weartime.xlsx
+++ b/DailyLife/Weartime.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ppID</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Analysed</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Not Analysed</t>
   </si>
   <si>
     <t>BC_002</t>
@@ -134,7 +143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
@@ -347,6 +356,35 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="D8" s="0">
+        <v>14.699999999999999</v>
+      </c>
+      <c r="E8" s="0">
+        <v>14.516666666666667</v>
+      </c>
+      <c r="F8" s="0">
+        <v>15.733333333333333</v>
+      </c>
+      <c r="G8" s="0">
+        <v>16.300000000000001</v>
+      </c>
+      <c r="H8" s="0">
+        <v>4.2999999999999998</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>